--- a/virtualisation/linux/0_-_Glossaire_Linux_-_Correction.xlsx
+++ b/virtualisation/linux/0_-_Glossaire_Linux_-_Correction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>Commande</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>usermod -aG [nomdugroupe][nomutilisateur]</t>
+  </si>
+  <si>
+    <t>-name (par nom)</t>
+  </si>
+  <si>
+    <t>getent groupe</t>
+  </si>
+  <si>
+    <t>affiche tous les groupes et ceux dedans</t>
   </si>
 </sst>
 </file>
@@ -948,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1335,9 @@
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B30" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>98</v>
       </c>
@@ -1598,7 +1610,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/virtualisation/linux/0_-_Glossaire_Linux_-_Correction.xlsx
+++ b/virtualisation/linux/0_-_Glossaire_Linux_-_Correction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="185">
   <si>
     <t>Commande</t>
   </si>
@@ -498,6 +498,85 @@
   </si>
   <si>
     <t>affiche tous les groupes et ceux dedans</t>
+  </si>
+  <si>
+    <t>su -l</t>
+  </si>
+  <si>
+    <t>passe en root</t>
+  </si>
+  <si>
+    <t>contrôle+c</t>
+  </si>
+  <si>
+    <t>contrôle+l</t>
+  </si>
+  <si>
+    <t>permet de sortir d'une commande qui bug</t>
+  </si>
+  <si>
+    <t>permet de clean le panneau de commande</t>
+  </si>
+  <si>
+    <t>docker cp CONTAINER:/chemin/ /chemin</t>
+  </si>
+  <si>
+    <t>copie d'un fichier du container vers la VM</t>
+  </si>
+  <si>
+    <t>docker cp ./chemin CONTAINER:/chrmin</t>
+  </si>
+  <si>
+    <t>copie d'un fichier de la VM vers le container</t>
+  </si>
+  <si>
+    <t>-p (portvm):(portimage) d- déttacher permet 
+de garder la main sur le terminal</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:80 --name web nginx</t>
+  </si>
+  <si>
+    <t>crée un conteneur sur le port 8080</t>
+  </si>
+  <si>
+    <t>-a voir tous les dockers meme eteins</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>voir les conteneurs</t>
+  </si>
+  <si>
+    <t>docker start [nomducontainer]</t>
+  </si>
+  <si>
+    <t>allume le conteneur</t>
+  </si>
+  <si>
+    <t>docker stop [nomducontainer]</t>
+  </si>
+  <si>
+    <t>arrete le conteneur</t>
+  </si>
+  <si>
+    <t>docker rm [nomducontainer]</t>
+  </si>
+  <si>
+    <t>supprime le conteneur arreter</t>
+  </si>
+  <si>
+    <t>docker image ls [id]</t>
+  </si>
+  <si>
+    <t>voir les differents images</t>
+  </si>
+  <si>
+    <t>docker image rm [id]</t>
+  </si>
+  <si>
+    <t>supprime les images</t>
   </si>
 </sst>
 </file>
@@ -636,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -674,6 +753,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -955,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,364 +1367,466 @@
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="E41" s="14"/>
     </row>
     <row r="43" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B49" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E49" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+    <row r="50" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B50" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D50" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+    <row r="51" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="D49" s="21" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+    <row r="52" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B52" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+    <row r="53" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+    <row r="54" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+    <row r="55" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+    <row r="56" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D56" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+    <row r="57" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1671,9 +1855,12 @@
     <row r="106" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="108" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E47" r:id="rId1"/>
+    <hyperlink ref="E49" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
